--- a/biology/Botanique/Citrus_tangerina/Citrus_tangerina.xlsx
+++ b/biology/Botanique/Citrus_tangerina/Citrus_tangerina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tangerine, Citrus ×tangerina, est un agrume dont le fruit est très proche de la mandarine commune. Son écorce est plus foncée et se pèle plus facilement que celle de la mandarine.
 Son nom vient de Tanger au Maroc, qui était le principal port pour l'exportation de ce fruit.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon les auteurs, le classement taxinomique de la tangerine varie :
 pour les uns, la tangerine est un hybride entre Citrus reticulata, un mandarinier et Citrus aurantium, un bigaradier. Elle prend alors le nom de Citrus ×tangerina Tanaka ;
@@ -545,7 +559,9 @@
           <t>Hybrides issus de tangerine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tangerine est un parent dans de nombreux croisements. Par exemple, le tangelo est un croisement de pomélo et de tangerine, la nova et la clemenvilla sont issues d'une hybridation avec la clémentine.
 On a également découvert à la Jamaïque de nombreux croisements naturels de tangerine et d'orange, on a nommé ces fruits tangors. Deux variétés sont couramment importées en France entre février et mai : les ortaniques à peau orange et rugueuse et les temples avec une  peau épaisse de couleur rouge foncé.
@@ -577,9 +593,11 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude scientifique récente, réalisée par l'Institut Robarts au Canada, a mis en évidence sur une population de souris, le rôle positif d'un bioflavonoïde contenu dans la tangerine, le nobilétine, dans la prévention du diabète et de l'obésité[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude scientifique récente, réalisée par l'Institut Robarts au Canada, a mis en évidence sur une population de souris, le rôle positif d'un bioflavonoïde contenu dans la tangerine, le nobilétine, dans la prévention du diabète et de l'obésité.
 </t>
         </is>
       </c>
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,6 +655,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
